--- a/Workbooks/JA/組織単位.xlsx
+++ b/Workbooks/JA/組織単位.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33D2971-5D35-4519-8A80-F342044EF287}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28E69BB-CAB2-47A9-8F33-4E5493DDCA41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -231,65 +231,6 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </horizontal>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
@@ -350,6 +291,65 @@
         </horizontal>
       </border>
       <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -477,8 +477,8 @@
   <autoFilter ref="A1:C201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="名前" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="結果" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="結果" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -488,9 +488,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:C201" totalsRowShown="0">
   <autoFilter ref="A1:C201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="名前" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="結果" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="名前" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="結果" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1580,6 +1580,11 @@
       <c r="B201" s="3"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なID" error="IDは0より大きい整数である必要があります。" sqref="A2:A1048576" xr:uid="{C1BA5FF5-53B3-43C1-A97F-EAA47AF054EE}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -2616,6 +2621,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なID" error="IDは0より大きい整数である必要があります。" sqref="B2:B1048576" xr:uid="{87223E2F-7A19-4346-925F-4E687E81784B}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -3650,6 +3660,11 @@
       <c r="C201" s="3"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なID" error="IDは0より大きい整数である必要があります。" sqref="A2:A1048576" xr:uid="{A0A6FE97-04FF-4A8F-A128-D98D71696D01}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/Workbooks/JA/組織単位.xlsx
+++ b/Workbooks/JA/組織単位.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28E69BB-CAB2-47A9-8F33-4E5493DDCA41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F94EEAB-BC8D-4CF1-AFA0-9B94098CC5D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -177,28 +177,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="15">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -207,8 +228,8 @@
           <bgColor theme="2"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </left>
@@ -221,12 +242,6 @@
         <bottom style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </horizontal>
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -238,8 +253,8 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="5"/>
         </left>
@@ -252,12 +267,6 @@
         <bottom style="thin">
           <color theme="5"/>
         </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -269,8 +278,8 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="5"/>
         </left>
@@ -283,14 +292,14 @@
         <bottom style="thin">
           <color theme="5"/>
         </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
       </border>
       <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -300,8 +309,8 @@
           <bgColor theme="2"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </left>
@@ -314,12 +323,6 @@
         <bottom style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </horizontal>
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -330,7 +333,8 @@
           <bgColor theme="2"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </left>
@@ -343,16 +347,11 @@
         <bottom style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="5"/>
         </left>
@@ -365,13 +364,28 @@
         <bottom style="thin">
           <color theme="5"/>
         </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -381,8 +395,8 @@
           <bgColor theme="2"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </left>
@@ -395,12 +409,6 @@
         <bottom style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </horizontal>
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -411,7 +419,8 @@
           <bgColor theme="2"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </left>
@@ -424,29 +433,7 @@
         <bottom style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -462,35 +449,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:B201" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:B201" headerRowDxfId="12" dataDxfId="10" totalsRowDxfId="11">
   <autoFilter ref="A1:B201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="ID" totalsRowLabel="Total" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="名前" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="ID" totalsRowLabel="Total" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="名前" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C201" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C201" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:C201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="名前" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="結果" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="名前" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="結果" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:C201" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:C201" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <autoFilter ref="A1:C201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="名前" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="結果" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="名前" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="結果" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -767,817 +754,818 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13" style="6" customWidth="1"/>
+    <col min="2" max="2" width="29.6328125" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A126" s="3"/>
-      <c r="B126" s="3"/>
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A127" s="3"/>
-      <c r="B127" s="3"/>
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A131" s="3"/>
-      <c r="B131" s="3"/>
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A132" s="3"/>
-      <c r="B132" s="3"/>
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A133" s="3"/>
-      <c r="B133" s="3"/>
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A134" s="3"/>
-      <c r="B134" s="3"/>
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A135" s="3"/>
-      <c r="B135" s="3"/>
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A136" s="3"/>
-      <c r="B136" s="3"/>
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A137" s="3"/>
-      <c r="B137" s="3"/>
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A138" s="3"/>
-      <c r="B138" s="3"/>
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A139" s="3"/>
-      <c r="B139" s="3"/>
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A140" s="3"/>
-      <c r="B140" s="3"/>
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A141" s="3"/>
-      <c r="B141" s="3"/>
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A142" s="3"/>
-      <c r="B142" s="3"/>
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A143" s="3"/>
-      <c r="B143" s="3"/>
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A144" s="3"/>
-      <c r="B144" s="3"/>
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A145" s="3"/>
-      <c r="B145" s="3"/>
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A146" s="3"/>
-      <c r="B146" s="3"/>
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A147" s="3"/>
-      <c r="B147" s="3"/>
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A148" s="3"/>
-      <c r="B148" s="3"/>
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A149" s="3"/>
-      <c r="B149" s="3"/>
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A150" s="3"/>
-      <c r="B150" s="3"/>
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A151" s="3"/>
-      <c r="B151" s="3"/>
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A152" s="3"/>
-      <c r="B152" s="3"/>
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A153" s="3"/>
-      <c r="B153" s="3"/>
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A154" s="3"/>
-      <c r="B154" s="3"/>
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A155" s="3"/>
-      <c r="B155" s="3"/>
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A156" s="3"/>
-      <c r="B156" s="3"/>
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A157" s="3"/>
-      <c r="B157" s="3"/>
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A158" s="3"/>
-      <c r="B158" s="3"/>
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A159" s="3"/>
-      <c r="B159" s="3"/>
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A160" s="3"/>
-      <c r="B160" s="3"/>
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A161" s="3"/>
-      <c r="B161" s="3"/>
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A162" s="3"/>
-      <c r="B162" s="3"/>
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A163" s="3"/>
-      <c r="B163" s="3"/>
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A164" s="3"/>
-      <c r="B164" s="3"/>
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A165" s="3"/>
-      <c r="B165" s="3"/>
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A166" s="3"/>
-      <c r="B166" s="3"/>
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A167" s="3"/>
-      <c r="B167" s="3"/>
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A168" s="3"/>
-      <c r="B168" s="3"/>
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A169" s="3"/>
-      <c r="B169" s="3"/>
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A170" s="3"/>
-      <c r="B170" s="3"/>
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A171" s="3"/>
-      <c r="B171" s="3"/>
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A172" s="3"/>
-      <c r="B172" s="3"/>
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A173" s="3"/>
-      <c r="B173" s="3"/>
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A174" s="3"/>
-      <c r="B174" s="3"/>
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A175" s="3"/>
-      <c r="B175" s="3"/>
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A176" s="3"/>
-      <c r="B176" s="3"/>
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A177" s="3"/>
-      <c r="B177" s="3"/>
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A178" s="3"/>
-      <c r="B178" s="3"/>
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A179" s="3"/>
-      <c r="B179" s="3"/>
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A180" s="3"/>
-      <c r="B180" s="3"/>
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A181" s="3"/>
-      <c r="B181" s="3"/>
+      <c r="A181" s="1"/>
+      <c r="B181" s="1"/>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A182" s="3"/>
-      <c r="B182" s="3"/>
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A183" s="3"/>
-      <c r="B183" s="3"/>
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A184" s="3"/>
-      <c r="B184" s="3"/>
+      <c r="A184" s="1"/>
+      <c r="B184" s="1"/>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A185" s="3"/>
-      <c r="B185" s="3"/>
+      <c r="A185" s="1"/>
+      <c r="B185" s="1"/>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A186" s="3"/>
-      <c r="B186" s="3"/>
+      <c r="A186" s="1"/>
+      <c r="B186" s="1"/>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A187" s="3"/>
-      <c r="B187" s="3"/>
+      <c r="A187" s="1"/>
+      <c r="B187" s="1"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A188" s="3"/>
-      <c r="B188" s="3"/>
+      <c r="A188" s="1"/>
+      <c r="B188" s="1"/>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A189" s="3"/>
-      <c r="B189" s="3"/>
+      <c r="A189" s="1"/>
+      <c r="B189" s="1"/>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A190" s="3"/>
-      <c r="B190" s="3"/>
+      <c r="A190" s="1"/>
+      <c r="B190" s="1"/>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A191" s="3"/>
-      <c r="B191" s="3"/>
+      <c r="A191" s="1"/>
+      <c r="B191" s="1"/>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A192" s="3"/>
-      <c r="B192" s="3"/>
+      <c r="A192" s="1"/>
+      <c r="B192" s="1"/>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A193" s="3"/>
-      <c r="B193" s="3"/>
+      <c r="A193" s="1"/>
+      <c r="B193" s="1"/>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A194" s="3"/>
-      <c r="B194" s="3"/>
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A195" s="3"/>
-      <c r="B195" s="3"/>
+      <c r="A195" s="1"/>
+      <c r="B195" s="1"/>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A196" s="3"/>
-      <c r="B196" s="3"/>
+      <c r="A196" s="1"/>
+      <c r="B196" s="1"/>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A197" s="3"/>
-      <c r="B197" s="3"/>
+      <c r="A197" s="1"/>
+      <c r="B197" s="1"/>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A198" s="3"/>
-      <c r="B198" s="3"/>
+      <c r="A198" s="1"/>
+      <c r="B198" s="1"/>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A200" s="3"/>
-      <c r="B200" s="3"/>
+      <c r="A200" s="1"/>
+      <c r="B200" s="1"/>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A201" s="3"/>
-      <c r="B201" s="3"/>
+      <c r="A201" s="1"/>
+      <c r="B201" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1603,1021 +1591,1023 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" customWidth="1"/>
+    <col min="1" max="1" width="32.36328125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.81640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="8"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="8"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="8"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="8"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="8"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="8"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="8"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="8"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="8"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="8"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="8"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="8"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="8"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="8"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="8"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="8"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="8"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="8"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="8"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="8"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="8"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="8"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="8"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="8"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="8"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="8"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="8"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="8"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="8"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="8"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="8"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="8"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="8"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="8"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="8"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="8"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="8"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="8"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="8"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="8"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="8"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
+      <c r="A42" s="7"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="8"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="8"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
+      <c r="A45" s="7"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="8"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
+      <c r="A46" s="7"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="8"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
+      <c r="A47" s="7"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="8"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="8"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
+      <c r="A50" s="7"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="8"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
+      <c r="A51" s="7"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="8"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
+      <c r="A52" s="7"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="8"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
+      <c r="A53" s="7"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="8"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
+      <c r="A54" s="7"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="8"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
+      <c r="A55" s="7"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="8"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
+      <c r="A56" s="7"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="8"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
+      <c r="A57" s="7"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="8"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
+      <c r="A58" s="7"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="8"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
+      <c r="A59" s="7"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="8"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
+      <c r="A60" s="7"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="8"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
+      <c r="A61" s="7"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="8"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
+      <c r="A62" s="7"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="8"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
+      <c r="A63" s="7"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="8"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
+      <c r="A64" s="7"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="8"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
+      <c r="A65" s="7"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="8"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
+      <c r="A66" s="7"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="8"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
+      <c r="A67" s="7"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="8"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
+      <c r="A68" s="7"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="8"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
+      <c r="A69" s="7"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="8"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
+      <c r="A70" s="7"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="8"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
+      <c r="A71" s="7"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" s="8"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
+      <c r="A72" s="7"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" s="8"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
+      <c r="A73" s="7"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" s="8"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
+      <c r="A74" s="7"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" s="8"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
+      <c r="A75" s="7"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" s="8"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
+      <c r="A76" s="7"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" s="8"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
+      <c r="A77" s="7"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" s="8"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
+      <c r="A78" s="7"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" s="8"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
+      <c r="A79" s="7"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" s="8"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
+      <c r="A80" s="7"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" s="8"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
+      <c r="A81" s="7"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" s="8"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
+      <c r="A82" s="7"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" s="8"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
+      <c r="A83" s="7"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" s="8"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
+      <c r="A84" s="7"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" s="8"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
+      <c r="A85" s="7"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" s="8"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
+      <c r="A86" s="7"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" s="8"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
+      <c r="A87" s="7"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" s="8"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
+      <c r="A88" s="7"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" s="8"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
+      <c r="A89" s="7"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A90" s="8"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
+      <c r="A90" s="7"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A91" s="8"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
+      <c r="A91" s="7"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A92" s="8"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
+      <c r="A92" s="7"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A93" s="8"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
+      <c r="A93" s="7"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A94" s="8"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
+      <c r="A94" s="7"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95" s="8"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
+      <c r="A95" s="7"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A96" s="8"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
+      <c r="A96" s="7"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A97" s="8"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
+      <c r="A97" s="7"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A98" s="8"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
+      <c r="A98" s="7"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A99" s="8"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
+      <c r="A99" s="7"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A100" s="8"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
+      <c r="A100" s="7"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A101" s="8"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
+      <c r="A101" s="7"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A102" s="8"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
+      <c r="A102" s="7"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A103" s="8"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
+      <c r="A103" s="7"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A104" s="8"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
+      <c r="A104" s="7"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A105" s="8"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
+      <c r="A105" s="7"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A106" s="8"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
+      <c r="A106" s="7"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A107" s="8"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
+      <c r="A107" s="7"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A108" s="8"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
+      <c r="A108" s="7"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A109" s="8"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
+      <c r="A109" s="7"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A110" s="8"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
+      <c r="A110" s="7"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A111" s="8"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
+      <c r="A111" s="7"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A112" s="8"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
+      <c r="A112" s="7"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A113" s="8"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
+      <c r="A113" s="7"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A114" s="8"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="3"/>
+      <c r="A114" s="7"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A115" s="8"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
+      <c r="A115" s="7"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A116" s="8"/>
-      <c r="B116" s="3"/>
-      <c r="C116" s="3"/>
+      <c r="A116" s="7"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A117" s="8"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
+      <c r="A117" s="7"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A118" s="8"/>
-      <c r="B118" s="3"/>
-      <c r="C118" s="3"/>
+      <c r="A118" s="7"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A119" s="8"/>
-      <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
+      <c r="A119" s="7"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A120" s="8"/>
-      <c r="B120" s="3"/>
-      <c r="C120" s="3"/>
+      <c r="A120" s="7"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A121" s="8"/>
-      <c r="B121" s="3"/>
-      <c r="C121" s="3"/>
+      <c r="A121" s="7"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A122" s="8"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="3"/>
+      <c r="A122" s="7"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A123" s="8"/>
-      <c r="B123" s="3"/>
-      <c r="C123" s="3"/>
+      <c r="A123" s="7"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A124" s="8"/>
-      <c r="B124" s="3"/>
-      <c r="C124" s="3"/>
+      <c r="A124" s="7"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A125" s="8"/>
-      <c r="B125" s="3"/>
-      <c r="C125" s="3"/>
+      <c r="A125" s="7"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A126" s="8"/>
-      <c r="B126" s="3"/>
-      <c r="C126" s="3"/>
+      <c r="A126" s="7"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A127" s="8"/>
-      <c r="B127" s="3"/>
-      <c r="C127" s="3"/>
+      <c r="A127" s="7"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A128" s="8"/>
-      <c r="B128" s="3"/>
-      <c r="C128" s="3"/>
+      <c r="A128" s="7"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A129" s="8"/>
-      <c r="B129" s="3"/>
-      <c r="C129" s="3"/>
+      <c r="A129" s="7"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A130" s="8"/>
-      <c r="B130" s="3"/>
-      <c r="C130" s="3"/>
+      <c r="A130" s="7"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A131" s="8"/>
-      <c r="B131" s="3"/>
-      <c r="C131" s="3"/>
+      <c r="A131" s="7"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A132" s="8"/>
-      <c r="B132" s="3"/>
-      <c r="C132" s="3"/>
+      <c r="A132" s="7"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A133" s="8"/>
-      <c r="B133" s="3"/>
-      <c r="C133" s="3"/>
+      <c r="A133" s="7"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A134" s="8"/>
-      <c r="B134" s="3"/>
-      <c r="C134" s="3"/>
+      <c r="A134" s="7"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A135" s="8"/>
-      <c r="B135" s="3"/>
-      <c r="C135" s="3"/>
+      <c r="A135" s="7"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A136" s="8"/>
-      <c r="B136" s="3"/>
-      <c r="C136" s="3"/>
+      <c r="A136" s="7"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A137" s="8"/>
-      <c r="B137" s="3"/>
-      <c r="C137" s="3"/>
+      <c r="A137" s="7"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A138" s="8"/>
-      <c r="B138" s="3"/>
-      <c r="C138" s="3"/>
+      <c r="A138" s="7"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A139" s="8"/>
-      <c r="B139" s="3"/>
-      <c r="C139" s="3"/>
+      <c r="A139" s="7"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A140" s="8"/>
-      <c r="B140" s="3"/>
-      <c r="C140" s="3"/>
+      <c r="A140" s="7"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A141" s="8"/>
-      <c r="B141" s="3"/>
-      <c r="C141" s="3"/>
+      <c r="A141" s="7"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A142" s="8"/>
-      <c r="B142" s="3"/>
-      <c r="C142" s="3"/>
+      <c r="A142" s="7"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A143" s="8"/>
-      <c r="B143" s="3"/>
-      <c r="C143" s="3"/>
+      <c r="A143" s="7"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A144" s="8"/>
-      <c r="B144" s="3"/>
-      <c r="C144" s="3"/>
+      <c r="A144" s="7"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A145" s="8"/>
-      <c r="B145" s="3"/>
-      <c r="C145" s="3"/>
+      <c r="A145" s="7"/>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A146" s="8"/>
-      <c r="B146" s="3"/>
-      <c r="C146" s="3"/>
+      <c r="A146" s="7"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A147" s="8"/>
-      <c r="B147" s="3"/>
-      <c r="C147" s="3"/>
+      <c r="A147" s="7"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A148" s="8"/>
-      <c r="B148" s="3"/>
-      <c r="C148" s="3"/>
+      <c r="A148" s="7"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A149" s="8"/>
-      <c r="B149" s="3"/>
-      <c r="C149" s="3"/>
+      <c r="A149" s="7"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A150" s="8"/>
-      <c r="B150" s="3"/>
-      <c r="C150" s="3"/>
+      <c r="A150" s="7"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A151" s="8"/>
-      <c r="B151" s="3"/>
-      <c r="C151" s="3"/>
+      <c r="A151" s="7"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A152" s="8"/>
-      <c r="B152" s="3"/>
-      <c r="C152" s="3"/>
+      <c r="A152" s="7"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A153" s="8"/>
-      <c r="B153" s="3"/>
-      <c r="C153" s="3"/>
+      <c r="A153" s="7"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A154" s="8"/>
-      <c r="B154" s="3"/>
-      <c r="C154" s="3"/>
+      <c r="A154" s="7"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A155" s="8"/>
-      <c r="B155" s="3"/>
-      <c r="C155" s="3"/>
+      <c r="A155" s="7"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A156" s="8"/>
-      <c r="B156" s="3"/>
-      <c r="C156" s="3"/>
+      <c r="A156" s="7"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A157" s="8"/>
-      <c r="B157" s="3"/>
-      <c r="C157" s="3"/>
+      <c r="A157" s="7"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A158" s="8"/>
-      <c r="B158" s="3"/>
-      <c r="C158" s="3"/>
+      <c r="A158" s="7"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A159" s="8"/>
-      <c r="B159" s="3"/>
-      <c r="C159" s="3"/>
+      <c r="A159" s="7"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A160" s="8"/>
-      <c r="B160" s="3"/>
-      <c r="C160" s="3"/>
+      <c r="A160" s="7"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A161" s="8"/>
-      <c r="B161" s="3"/>
-      <c r="C161" s="3"/>
+      <c r="A161" s="7"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A162" s="8"/>
-      <c r="B162" s="3"/>
-      <c r="C162" s="3"/>
+      <c r="A162" s="7"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A163" s="8"/>
-      <c r="B163" s="3"/>
-      <c r="C163" s="3"/>
+      <c r="A163" s="7"/>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A164" s="8"/>
-      <c r="B164" s="3"/>
-      <c r="C164" s="3"/>
+      <c r="A164" s="7"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A165" s="8"/>
-      <c r="B165" s="3"/>
-      <c r="C165" s="3"/>
+      <c r="A165" s="7"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A166" s="8"/>
-      <c r="B166" s="3"/>
-      <c r="C166" s="3"/>
+      <c r="A166" s="7"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A167" s="8"/>
-      <c r="B167" s="3"/>
-      <c r="C167" s="3"/>
+      <c r="A167" s="7"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A168" s="8"/>
-      <c r="B168" s="3"/>
-      <c r="C168" s="3"/>
+      <c r="A168" s="7"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A169" s="8"/>
-      <c r="B169" s="3"/>
-      <c r="C169" s="3"/>
+      <c r="A169" s="7"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A170" s="8"/>
-      <c r="B170" s="3"/>
-      <c r="C170" s="3"/>
+      <c r="A170" s="7"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A171" s="8"/>
-      <c r="B171" s="3"/>
-      <c r="C171" s="3"/>
+      <c r="A171" s="7"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A172" s="8"/>
-      <c r="B172" s="3"/>
-      <c r="C172" s="3"/>
+      <c r="A172" s="7"/>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A173" s="8"/>
-      <c r="B173" s="3"/>
-      <c r="C173" s="3"/>
+      <c r="A173" s="7"/>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A174" s="8"/>
-      <c r="B174" s="3"/>
-      <c r="C174" s="3"/>
+      <c r="A174" s="7"/>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A175" s="8"/>
-      <c r="B175" s="3"/>
-      <c r="C175" s="3"/>
+      <c r="A175" s="7"/>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A176" s="8"/>
-      <c r="B176" s="3"/>
-      <c r="C176" s="3"/>
+      <c r="A176" s="7"/>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A177" s="8"/>
-      <c r="B177" s="3"/>
-      <c r="C177" s="3"/>
+      <c r="A177" s="7"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A178" s="8"/>
-      <c r="B178" s="3"/>
-      <c r="C178" s="3"/>
+      <c r="A178" s="7"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A179" s="8"/>
-      <c r="B179" s="3"/>
-      <c r="C179" s="3"/>
+      <c r="A179" s="7"/>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A180" s="8"/>
-      <c r="B180" s="3"/>
-      <c r="C180" s="3"/>
+      <c r="A180" s="7"/>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A181" s="8"/>
-      <c r="B181" s="3"/>
-      <c r="C181" s="3"/>
+      <c r="A181" s="7"/>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A182" s="8"/>
-      <c r="B182" s="3"/>
-      <c r="C182" s="3"/>
+      <c r="A182" s="7"/>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A183" s="8"/>
-      <c r="B183" s="3"/>
-      <c r="C183" s="3"/>
+      <c r="A183" s="7"/>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A184" s="8"/>
-      <c r="B184" s="3"/>
-      <c r="C184" s="3"/>
+      <c r="A184" s="7"/>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A185" s="8"/>
-      <c r="B185" s="3"/>
-      <c r="C185" s="3"/>
+      <c r="A185" s="7"/>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A186" s="8"/>
-      <c r="B186" s="3"/>
-      <c r="C186" s="3"/>
+      <c r="A186" s="7"/>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A187" s="8"/>
-      <c r="B187" s="3"/>
-      <c r="C187" s="3"/>
+      <c r="A187" s="7"/>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A188" s="8"/>
-      <c r="B188" s="3"/>
-      <c r="C188" s="3"/>
+      <c r="A188" s="7"/>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A189" s="8"/>
-      <c r="B189" s="3"/>
-      <c r="C189" s="3"/>
+      <c r="A189" s="7"/>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A190" s="8"/>
-      <c r="B190" s="3"/>
-      <c r="C190" s="3"/>
+      <c r="A190" s="7"/>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A191" s="8"/>
-      <c r="B191" s="3"/>
-      <c r="C191" s="3"/>
+      <c r="A191" s="7"/>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A192" s="8"/>
-      <c r="B192" s="3"/>
-      <c r="C192" s="3"/>
+      <c r="A192" s="7"/>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A193" s="8"/>
-      <c r="B193" s="3"/>
-      <c r="C193" s="3"/>
+      <c r="A193" s="7"/>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A194" s="8"/>
-      <c r="B194" s="3"/>
-      <c r="C194" s="3"/>
+      <c r="A194" s="7"/>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A195" s="8"/>
-      <c r="B195" s="3"/>
-      <c r="C195" s="3"/>
+      <c r="A195" s="7"/>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A196" s="8"/>
-      <c r="B196" s="3"/>
-      <c r="C196" s="3"/>
+      <c r="A196" s="7"/>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A197" s="8"/>
-      <c r="B197" s="3"/>
-      <c r="C197" s="3"/>
+      <c r="A197" s="7"/>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A198" s="8"/>
-      <c r="B198" s="3"/>
-      <c r="C198" s="3"/>
+      <c r="A198" s="7"/>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A199" s="8"/>
-      <c r="B199" s="3"/>
-      <c r="C199" s="3"/>
+      <c r="A199" s="7"/>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A200" s="8"/>
-      <c r="B200" s="3"/>
-      <c r="C200" s="3"/>
+      <c r="A200" s="7"/>
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A201" s="11"/>
-      <c r="B201" s="3"/>
-      <c r="C201" s="3"/>
+      <c r="A201" s="9"/>
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2644,1020 +2634,1022 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.36328125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="33.36328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="43.7265625" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="3"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="3"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="3"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="3"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="3"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="6"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="3"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="6"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="3"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="6"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="3"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="6"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="3"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="6"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="6"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="3"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="6"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="6"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="3"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="6"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="3"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="6"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="3"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="6"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="3"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="6"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="3"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="6"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="3"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="6"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="3"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="6"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="3"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="6"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="3"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="6"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="3"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="6"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="3"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="6"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="3"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="6"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="3"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="6"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="3"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="1"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="6"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="3"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="1"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="6"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="3"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="6"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="3"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="6"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="3"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="6"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="3"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="1"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="6"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="3"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="6"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="3"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="6"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="3"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="6"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="3"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="6"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="3"/>
+      <c r="A42" s="2"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="6"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="3"/>
+      <c r="A43" s="2"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="1"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="6"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="3"/>
+      <c r="A44" s="2"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="6"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="3"/>
+      <c r="A45" s="2"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="1"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="6"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="3"/>
+      <c r="A46" s="2"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="1"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="6"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="3"/>
+      <c r="A47" s="2"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="1"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="6"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="3"/>
+      <c r="A48" s="2"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="1"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="6"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="3"/>
+      <c r="A49" s="2"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="1"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="6"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="3"/>
+      <c r="A50" s="2"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="1"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="6"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="3"/>
+      <c r="A51" s="2"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="1"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="6"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="3"/>
+      <c r="A52" s="2"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="1"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="6"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="3"/>
+      <c r="A53" s="2"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="1"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="6"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="3"/>
+      <c r="A54" s="2"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="1"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="6"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="3"/>
+      <c r="A55" s="2"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="1"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="6"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="3"/>
+      <c r="A56" s="2"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="1"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="6"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="3"/>
+      <c r="A57" s="2"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="1"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="6"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="3"/>
+      <c r="A58" s="2"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="1"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="6"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="3"/>
+      <c r="A59" s="2"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="1"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="6"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="3"/>
+      <c r="A60" s="2"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="1"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="6"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="3"/>
+      <c r="A61" s="2"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="1"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="6"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="3"/>
+      <c r="A62" s="2"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="1"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="6"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="3"/>
+      <c r="A63" s="2"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="1"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="6"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="3"/>
+      <c r="A64" s="2"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="1"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="6"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="3"/>
+      <c r="A65" s="2"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="1"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="6"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="3"/>
+      <c r="A66" s="2"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="1"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="6"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="3"/>
+      <c r="A67" s="2"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="1"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="6"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="3"/>
+      <c r="A68" s="2"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="1"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="6"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="3"/>
+      <c r="A69" s="2"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="1"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="6"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="3"/>
+      <c r="A70" s="2"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="1"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="6"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="3"/>
+      <c r="A71" s="2"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="1"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" s="6"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="3"/>
+      <c r="A72" s="2"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="1"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" s="6"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="3"/>
+      <c r="A73" s="2"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="1"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" s="6"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="3"/>
+      <c r="A74" s="2"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="1"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" s="6"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="3"/>
+      <c r="A75" s="2"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="1"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" s="6"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="3"/>
+      <c r="A76" s="2"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="1"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" s="6"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="3"/>
+      <c r="A77" s="2"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="1"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" s="6"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="3"/>
+      <c r="A78" s="2"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="1"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" s="6"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="3"/>
+      <c r="A79" s="2"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="1"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" s="6"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="3"/>
+      <c r="A80" s="2"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="1"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="3"/>
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="1"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="3"/>
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="1"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="3"/>
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="1"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" s="6"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="3"/>
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="1"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" s="6"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="3"/>
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="1"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" s="6"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="3"/>
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="1"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" s="6"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="3"/>
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="1"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" s="6"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="3"/>
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="1"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" s="6"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="3"/>
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="1"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A90" s="6"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="3"/>
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="1"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A91" s="6"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="3"/>
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="1"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A92" s="6"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="3"/>
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="1"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A93" s="6"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="3"/>
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="1"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A94" s="6"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="3"/>
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="1"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95" s="6"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="3"/>
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="1"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A96" s="6"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="3"/>
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="1"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A97" s="6"/>
-      <c r="B97" s="6"/>
-      <c r="C97" s="3"/>
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="1"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A98" s="6"/>
-      <c r="B98" s="6"/>
-      <c r="C98" s="3"/>
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="1"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A99" s="6"/>
-      <c r="B99" s="6"/>
-      <c r="C99" s="3"/>
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="1"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A100" s="6"/>
-      <c r="B100" s="6"/>
-      <c r="C100" s="3"/>
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="1"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A101" s="6"/>
-      <c r="B101" s="6"/>
-      <c r="C101" s="3"/>
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="1"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A102" s="6"/>
-      <c r="B102" s="6"/>
-      <c r="C102" s="3"/>
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="1"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A103" s="6"/>
-      <c r="B103" s="6"/>
-      <c r="C103" s="3"/>
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="1"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A104" s="6"/>
-      <c r="B104" s="6"/>
-      <c r="C104" s="3"/>
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="1"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A105" s="6"/>
-      <c r="B105" s="6"/>
-      <c r="C105" s="3"/>
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="1"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A106" s="6"/>
-      <c r="B106" s="6"/>
-      <c r="C106" s="3"/>
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="1"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A107" s="6"/>
-      <c r="B107" s="6"/>
-      <c r="C107" s="3"/>
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="1"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A108" s="6"/>
-      <c r="B108" s="6"/>
-      <c r="C108" s="3"/>
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="1"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A109" s="6"/>
-      <c r="B109" s="6"/>
-      <c r="C109" s="3"/>
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="1"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A110" s="6"/>
-      <c r="B110" s="6"/>
-      <c r="C110" s="3"/>
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="1"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A111" s="6"/>
-      <c r="B111" s="6"/>
-      <c r="C111" s="3"/>
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="1"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A112" s="6"/>
-      <c r="B112" s="6"/>
-      <c r="C112" s="3"/>
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="1"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A113" s="6"/>
-      <c r="B113" s="6"/>
-      <c r="C113" s="3"/>
+      <c r="A113" s="2"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="1"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A114" s="6"/>
-      <c r="B114" s="6"/>
-      <c r="C114" s="3"/>
+      <c r="A114" s="2"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="1"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A115" s="6"/>
-      <c r="B115" s="6"/>
-      <c r="C115" s="3"/>
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="1"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A116" s="6"/>
-      <c r="B116" s="6"/>
-      <c r="C116" s="3"/>
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="1"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A117" s="6"/>
-      <c r="B117" s="6"/>
-      <c r="C117" s="3"/>
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="1"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A118" s="6"/>
-      <c r="B118" s="6"/>
-      <c r="C118" s="3"/>
+      <c r="A118" s="2"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="1"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A119" s="6"/>
-      <c r="B119" s="6"/>
-      <c r="C119" s="3"/>
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="1"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A120" s="6"/>
-      <c r="B120" s="6"/>
-      <c r="C120" s="3"/>
+      <c r="A120" s="2"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="1"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A121" s="6"/>
-      <c r="B121" s="6"/>
-      <c r="C121" s="3"/>
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="1"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A122" s="6"/>
-      <c r="B122" s="6"/>
-      <c r="C122" s="3"/>
+      <c r="A122" s="2"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="1"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A123" s="6"/>
-      <c r="B123" s="6"/>
-      <c r="C123" s="3"/>
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="1"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A124" s="6"/>
-      <c r="B124" s="6"/>
-      <c r="C124" s="3"/>
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="1"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A125" s="6"/>
-      <c r="B125" s="6"/>
-      <c r="C125" s="3"/>
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="1"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A126" s="6"/>
-      <c r="B126" s="6"/>
-      <c r="C126" s="3"/>
+      <c r="A126" s="2"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="1"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A127" s="6"/>
-      <c r="B127" s="6"/>
-      <c r="C127" s="3"/>
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="1"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A128" s="6"/>
-      <c r="B128" s="6"/>
-      <c r="C128" s="3"/>
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="1"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A129" s="6"/>
-      <c r="B129" s="6"/>
-      <c r="C129" s="3"/>
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="1"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A130" s="6"/>
-      <c r="B130" s="6"/>
-      <c r="C130" s="3"/>
+      <c r="A130" s="2"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="1"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A131" s="6"/>
-      <c r="B131" s="6"/>
-      <c r="C131" s="3"/>
+      <c r="A131" s="2"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="1"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A132" s="6"/>
-      <c r="B132" s="6"/>
-      <c r="C132" s="3"/>
+      <c r="A132" s="2"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="1"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A133" s="6"/>
-      <c r="B133" s="6"/>
-      <c r="C133" s="3"/>
+      <c r="A133" s="2"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="1"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A134" s="6"/>
-      <c r="B134" s="6"/>
-      <c r="C134" s="3"/>
+      <c r="A134" s="2"/>
+      <c r="B134" s="2"/>
+      <c r="C134" s="1"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A135" s="6"/>
-      <c r="B135" s="6"/>
-      <c r="C135" s="3"/>
+      <c r="A135" s="2"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="1"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A136" s="6"/>
-      <c r="B136" s="6"/>
-      <c r="C136" s="3"/>
+      <c r="A136" s="2"/>
+      <c r="B136" s="2"/>
+      <c r="C136" s="1"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A137" s="6"/>
-      <c r="B137" s="6"/>
-      <c r="C137" s="3"/>
+      <c r="A137" s="2"/>
+      <c r="B137" s="2"/>
+      <c r="C137" s="1"/>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A138" s="6"/>
-      <c r="B138" s="6"/>
-      <c r="C138" s="3"/>
+      <c r="A138" s="2"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="1"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A139" s="6"/>
-      <c r="B139" s="6"/>
-      <c r="C139" s="3"/>
+      <c r="A139" s="2"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="1"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A140" s="6"/>
-      <c r="B140" s="6"/>
-      <c r="C140" s="3"/>
+      <c r="A140" s="2"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="1"/>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A141" s="6"/>
-      <c r="B141" s="6"/>
-      <c r="C141" s="3"/>
+      <c r="A141" s="2"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="1"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A142" s="6"/>
-      <c r="B142" s="6"/>
-      <c r="C142" s="3"/>
+      <c r="A142" s="2"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="1"/>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A143" s="6"/>
-      <c r="B143" s="6"/>
-      <c r="C143" s="3"/>
+      <c r="A143" s="2"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="1"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A144" s="6"/>
-      <c r="B144" s="6"/>
-      <c r="C144" s="3"/>
+      <c r="A144" s="2"/>
+      <c r="B144" s="2"/>
+      <c r="C144" s="1"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A145" s="6"/>
-      <c r="B145" s="6"/>
-      <c r="C145" s="3"/>
+      <c r="A145" s="2"/>
+      <c r="B145" s="2"/>
+      <c r="C145" s="1"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A146" s="6"/>
-      <c r="B146" s="6"/>
-      <c r="C146" s="3"/>
+      <c r="A146" s="2"/>
+      <c r="B146" s="2"/>
+      <c r="C146" s="1"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A147" s="6"/>
-      <c r="B147" s="6"/>
-      <c r="C147" s="3"/>
+      <c r="A147" s="2"/>
+      <c r="B147" s="2"/>
+      <c r="C147" s="1"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A148" s="6"/>
-      <c r="B148" s="6"/>
-      <c r="C148" s="3"/>
+      <c r="A148" s="2"/>
+      <c r="B148" s="2"/>
+      <c r="C148" s="1"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A149" s="6"/>
-      <c r="B149" s="6"/>
-      <c r="C149" s="3"/>
+      <c r="A149" s="2"/>
+      <c r="B149" s="2"/>
+      <c r="C149" s="1"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A150" s="6"/>
-      <c r="B150" s="6"/>
-      <c r="C150" s="3"/>
+      <c r="A150" s="2"/>
+      <c r="B150" s="2"/>
+      <c r="C150" s="1"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A151" s="6"/>
-      <c r="B151" s="6"/>
-      <c r="C151" s="3"/>
+      <c r="A151" s="2"/>
+      <c r="B151" s="2"/>
+      <c r="C151" s="1"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A152" s="6"/>
-      <c r="B152" s="6"/>
-      <c r="C152" s="3"/>
+      <c r="A152" s="2"/>
+      <c r="B152" s="2"/>
+      <c r="C152" s="1"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A153" s="6"/>
-      <c r="B153" s="6"/>
-      <c r="C153" s="3"/>
+      <c r="A153" s="2"/>
+      <c r="B153" s="2"/>
+      <c r="C153" s="1"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A154" s="6"/>
-      <c r="B154" s="6"/>
-      <c r="C154" s="3"/>
+      <c r="A154" s="2"/>
+      <c r="B154" s="2"/>
+      <c r="C154" s="1"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A155" s="6"/>
-      <c r="B155" s="6"/>
-      <c r="C155" s="3"/>
+      <c r="A155" s="2"/>
+      <c r="B155" s="2"/>
+      <c r="C155" s="1"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A156" s="6"/>
-      <c r="B156" s="6"/>
-      <c r="C156" s="3"/>
+      <c r="A156" s="2"/>
+      <c r="B156" s="2"/>
+      <c r="C156" s="1"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A157" s="6"/>
-      <c r="B157" s="6"/>
-      <c r="C157" s="3"/>
+      <c r="A157" s="2"/>
+      <c r="B157" s="2"/>
+      <c r="C157" s="1"/>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A158" s="6"/>
-      <c r="B158" s="6"/>
-      <c r="C158" s="3"/>
+      <c r="A158" s="2"/>
+      <c r="B158" s="2"/>
+      <c r="C158" s="1"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A159" s="6"/>
-      <c r="B159" s="6"/>
-      <c r="C159" s="3"/>
+      <c r="A159" s="2"/>
+      <c r="B159" s="2"/>
+      <c r="C159" s="1"/>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A160" s="6"/>
-      <c r="B160" s="6"/>
-      <c r="C160" s="3"/>
+      <c r="A160" s="2"/>
+      <c r="B160" s="2"/>
+      <c r="C160" s="1"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A161" s="6"/>
-      <c r="B161" s="6"/>
-      <c r="C161" s="3"/>
+      <c r="A161" s="2"/>
+      <c r="B161" s="2"/>
+      <c r="C161" s="1"/>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A162" s="6"/>
-      <c r="B162" s="6"/>
-      <c r="C162" s="3"/>
+      <c r="A162" s="2"/>
+      <c r="B162" s="2"/>
+      <c r="C162" s="1"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A163" s="6"/>
-      <c r="B163" s="6"/>
-      <c r="C163" s="3"/>
+      <c r="A163" s="2"/>
+      <c r="B163" s="2"/>
+      <c r="C163" s="1"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A164" s="6"/>
-      <c r="B164" s="6"/>
-      <c r="C164" s="3"/>
+      <c r="A164" s="2"/>
+      <c r="B164" s="2"/>
+      <c r="C164" s="1"/>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A165" s="6"/>
-      <c r="B165" s="6"/>
-      <c r="C165" s="3"/>
+      <c r="A165" s="2"/>
+      <c r="B165" s="2"/>
+      <c r="C165" s="1"/>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A166" s="6"/>
-      <c r="B166" s="6"/>
-      <c r="C166" s="3"/>
+      <c r="A166" s="2"/>
+      <c r="B166" s="2"/>
+      <c r="C166" s="1"/>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A167" s="6"/>
-      <c r="B167" s="6"/>
-      <c r="C167" s="3"/>
+      <c r="A167" s="2"/>
+      <c r="B167" s="2"/>
+      <c r="C167" s="1"/>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A168" s="6"/>
-      <c r="B168" s="6"/>
-      <c r="C168" s="3"/>
+      <c r="A168" s="2"/>
+      <c r="B168" s="2"/>
+      <c r="C168" s="1"/>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A169" s="6"/>
-      <c r="B169" s="6"/>
-      <c r="C169" s="3"/>
+      <c r="A169" s="2"/>
+      <c r="B169" s="2"/>
+      <c r="C169" s="1"/>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A170" s="6"/>
-      <c r="B170" s="6"/>
-      <c r="C170" s="3"/>
+      <c r="A170" s="2"/>
+      <c r="B170" s="2"/>
+      <c r="C170" s="1"/>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A171" s="6"/>
-      <c r="B171" s="6"/>
-      <c r="C171" s="3"/>
+      <c r="A171" s="2"/>
+      <c r="B171" s="2"/>
+      <c r="C171" s="1"/>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A172" s="6"/>
-      <c r="B172" s="6"/>
-      <c r="C172" s="3"/>
+      <c r="A172" s="2"/>
+      <c r="B172" s="2"/>
+      <c r="C172" s="1"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A173" s="6"/>
-      <c r="B173" s="6"/>
-      <c r="C173" s="3"/>
+      <c r="A173" s="2"/>
+      <c r="B173" s="2"/>
+      <c r="C173" s="1"/>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A174" s="6"/>
-      <c r="B174" s="6"/>
-      <c r="C174" s="3"/>
+      <c r="A174" s="2"/>
+      <c r="B174" s="2"/>
+      <c r="C174" s="1"/>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A175" s="6"/>
-      <c r="B175" s="6"/>
-      <c r="C175" s="3"/>
+      <c r="A175" s="2"/>
+      <c r="B175" s="2"/>
+      <c r="C175" s="1"/>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A176" s="6"/>
-      <c r="B176" s="6"/>
-      <c r="C176" s="3"/>
+      <c r="A176" s="2"/>
+      <c r="B176" s="2"/>
+      <c r="C176" s="1"/>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A177" s="6"/>
-      <c r="B177" s="6"/>
-      <c r="C177" s="3"/>
+      <c r="A177" s="2"/>
+      <c r="B177" s="2"/>
+      <c r="C177" s="1"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A178" s="6"/>
-      <c r="B178" s="6"/>
-      <c r="C178" s="3"/>
+      <c r="A178" s="2"/>
+      <c r="B178" s="2"/>
+      <c r="C178" s="1"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A179" s="6"/>
-      <c r="B179" s="6"/>
-      <c r="C179" s="3"/>
+      <c r="A179" s="2"/>
+      <c r="B179" s="2"/>
+      <c r="C179" s="1"/>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A180" s="6"/>
-      <c r="B180" s="6"/>
-      <c r="C180" s="3"/>
+      <c r="A180" s="2"/>
+      <c r="B180" s="2"/>
+      <c r="C180" s="1"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A181" s="6"/>
-      <c r="B181" s="6"/>
-      <c r="C181" s="3"/>
+      <c r="A181" s="2"/>
+      <c r="B181" s="2"/>
+      <c r="C181" s="1"/>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A182" s="6"/>
-      <c r="B182" s="6"/>
-      <c r="C182" s="3"/>
+      <c r="A182" s="2"/>
+      <c r="B182" s="2"/>
+      <c r="C182" s="1"/>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A183" s="6"/>
-      <c r="B183" s="6"/>
-      <c r="C183" s="3"/>
+      <c r="A183" s="2"/>
+      <c r="B183" s="2"/>
+      <c r="C183" s="1"/>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A184" s="6"/>
-      <c r="B184" s="6"/>
-      <c r="C184" s="3"/>
+      <c r="A184" s="2"/>
+      <c r="B184" s="2"/>
+      <c r="C184" s="1"/>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A185" s="6"/>
-      <c r="B185" s="6"/>
-      <c r="C185" s="3"/>
+      <c r="A185" s="2"/>
+      <c r="B185" s="2"/>
+      <c r="C185" s="1"/>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A186" s="6"/>
-      <c r="B186" s="6"/>
-      <c r="C186" s="3"/>
+      <c r="A186" s="2"/>
+      <c r="B186" s="2"/>
+      <c r="C186" s="1"/>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A187" s="6"/>
-      <c r="B187" s="6"/>
-      <c r="C187" s="3"/>
+      <c r="A187" s="2"/>
+      <c r="B187" s="2"/>
+      <c r="C187" s="1"/>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A188" s="6"/>
-      <c r="B188" s="6"/>
-      <c r="C188" s="3"/>
+      <c r="A188" s="2"/>
+      <c r="B188" s="2"/>
+      <c r="C188" s="1"/>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A189" s="6"/>
-      <c r="B189" s="6"/>
-      <c r="C189" s="3"/>
+      <c r="A189" s="2"/>
+      <c r="B189" s="2"/>
+      <c r="C189" s="1"/>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A190" s="6"/>
-      <c r="B190" s="6"/>
-      <c r="C190" s="3"/>
+      <c r="A190" s="2"/>
+      <c r="B190" s="2"/>
+      <c r="C190" s="1"/>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A191" s="6"/>
-      <c r="B191" s="6"/>
-      <c r="C191" s="3"/>
+      <c r="A191" s="2"/>
+      <c r="B191" s="2"/>
+      <c r="C191" s="1"/>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A192" s="6"/>
-      <c r="B192" s="6"/>
-      <c r="C192" s="3"/>
+      <c r="A192" s="2"/>
+      <c r="B192" s="2"/>
+      <c r="C192" s="1"/>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A193" s="6"/>
-      <c r="B193" s="6"/>
-      <c r="C193" s="3"/>
+      <c r="A193" s="2"/>
+      <c r="B193" s="2"/>
+      <c r="C193" s="1"/>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A194" s="6"/>
-      <c r="B194" s="6"/>
-      <c r="C194" s="3"/>
+      <c r="A194" s="2"/>
+      <c r="B194" s="2"/>
+      <c r="C194" s="1"/>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A195" s="6"/>
-      <c r="B195" s="6"/>
-      <c r="C195" s="3"/>
+      <c r="A195" s="2"/>
+      <c r="B195" s="2"/>
+      <c r="C195" s="1"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A196" s="6"/>
-      <c r="B196" s="6"/>
-      <c r="C196" s="3"/>
+      <c r="A196" s="2"/>
+      <c r="B196" s="2"/>
+      <c r="C196" s="1"/>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A197" s="6"/>
-      <c r="B197" s="6"/>
-      <c r="C197" s="3"/>
+      <c r="A197" s="2"/>
+      <c r="B197" s="2"/>
+      <c r="C197" s="1"/>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A198" s="6"/>
-      <c r="B198" s="6"/>
-      <c r="C198" s="3"/>
+      <c r="A198" s="2"/>
+      <c r="B198" s="2"/>
+      <c r="C198" s="1"/>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A199" s="6"/>
-      <c r="B199" s="6"/>
-      <c r="C199" s="3"/>
+      <c r="A199" s="2"/>
+      <c r="B199" s="2"/>
+      <c r="C199" s="1"/>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A200" s="6"/>
-      <c r="B200" s="6"/>
-      <c r="C200" s="3"/>
+      <c r="A200" s="2"/>
+      <c r="B200" s="2"/>
+      <c r="C200" s="1"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" s="10"/>
-      <c r="B201" s="11"/>
-      <c r="C201" s="3"/>
+      <c r="B201" s="9"/>
+      <c r="C201" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Workbooks/JA/組織単位.xlsx
+++ b/Workbooks/JA/組織単位.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F94EEAB-BC8D-4CF1-AFA0-9B94098CC5D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA996FCD-6BC7-4159-A6BC-C1EC1B13C241}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -215,12 +215,6 @@
   </cellStyles>
   <dxfs count="15">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
@@ -367,24 +361,9 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -435,6 +414,27 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -449,35 +449,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:B201" headerRowDxfId="12" dataDxfId="10" totalsRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:B201" headerRowDxfId="14" dataDxfId="13" totalsRowDxfId="12">
   <autoFilter ref="A1:B201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="ID" totalsRowLabel="Total" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="名前" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="ID" totalsRowLabel="Total" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="名前" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C201" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C201" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:C201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="名前" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="結果" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="名前" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="結果" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:C201" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:C201" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A1:C201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="名前" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="結果" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="名前" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="結果" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -754,8 +754,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13" style="6" customWidth="1"/>
-    <col min="2" max="2" width="29.6328125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="25.6328125" style="6" customWidth="1"/>
     <col min="3" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
@@ -1591,9 +1591,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.36328125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.81640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="25.6328125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="45.6328125" style="4" customWidth="1"/>
     <col min="4" max="4" width="18.81640625" style="4" customWidth="1"/>
     <col min="5" max="16384" width="8.7265625" style="4"/>
   </cols>
@@ -2634,9 +2634,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.36328125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="33.36328125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="43.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="25.6328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="45.6328125" style="4" customWidth="1"/>
     <col min="4" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>

--- a/Workbooks/JA/組織単位.xlsx
+++ b/Workbooks/JA/組織単位.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B82C76B-0747-49F9-8D16-0944FAC7B357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B89AF6B-7562-4C68-84FA-41E052A2960E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6390" yWindow="1880" windowWidth="29640" windowHeight="15630" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="63030" yWindow="690" windowWidth="28800" windowHeight="11265" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/組織単位.xlsx
+++ b/Workbooks/JA/組織単位.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B89AF6B-7562-4C68-84FA-41E052A2960E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10810648-C927-441B-82F9-133BC7362FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="63030" yWindow="690" windowWidth="28800" windowHeight="11265" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4940" yWindow="4940" windowWidth="28800" windowHeight="15460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
@@ -758,6 +758,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B90804-4CC2-4F3A-A5A0-B313E9BACDDF}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1595,6 +1596,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2637,6 +2639,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A7D921-E601-49D8-BBF5-CB56640085F5}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/Workbooks/JA/組織単位.xlsx
+++ b/Workbooks/JA/組織単位.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10810648-C927-441B-82F9-133BC7362FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09BC744-B10E-4FA6-9875-DA75239F5E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="4940" windowWidth="28800" windowHeight="15460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="61575" yWindow="1260" windowWidth="23640" windowHeight="12630" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/組織単位.xlsx
+++ b/Workbooks/JA/組織単位.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09BC744-B10E-4FA6-9875-DA75239F5E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28B0D69-5838-4029-9BF5-4729091BA18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="61575" yWindow="1260" windowWidth="23640" windowHeight="12630" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Workbooks/JA/組織単位.xlsx
+++ b/Workbooks/JA/組織単位.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28B0D69-5838-4029-9BF5-4729091BA18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D7E936-2658-429E-906C-3A25C5D0DA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="61575" yWindow="1260" windowWidth="23640" windowHeight="12630" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60075" yWindow="1200" windowWidth="35190" windowHeight="12660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/組織単位.xlsx
+++ b/Workbooks/JA/組織単位.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D7E936-2658-429E-906C-3A25C5D0DA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D389B1E-2979-44A7-9CCF-8DA64E03A6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60075" yWindow="1200" windowWidth="35190" windowHeight="12660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Workbooks/JA/組織単位.xlsx
+++ b/Workbooks/JA/組織単位.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D389B1E-2979-44A7-9CCF-8DA64E03A6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DD330E-1832-4D09-AB7B-1E565B370B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60075" yWindow="1200" windowWidth="35190" windowHeight="12660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60585" yWindow="1710" windowWidth="35190" windowHeight="12660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/組織単位.xlsx
+++ b/Workbooks/JA/組織単位.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DD330E-1832-4D09-AB7B-1E565B370B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FAF2D5-0757-4314-BB15-44A9D51E2849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60585" yWindow="1710" windowWidth="35190" windowHeight="12660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60075" yWindow="1200" windowWidth="35190" windowHeight="12660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/組織単位.xlsx
+++ b/Workbooks/JA/組織単位.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FAF2D5-0757-4314-BB15-44A9D51E2849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190ACC20-C1FA-4AAE-9EEE-F7AFEB81D9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60075" yWindow="1200" windowWidth="35190" windowHeight="12660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/組織単位.xlsx
+++ b/Workbooks/JA/組織単位.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190ACC20-C1FA-4AAE-9EEE-F7AFEB81D9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9CA055-C70B-4BD0-8519-E8C5AE7C5831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="10690" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/組織単位.xlsx
+++ b/Workbooks/JA/組織単位.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9CA055-C70B-4BD0-8519-E8C5AE7C5831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F12A6D-C03F-4B27-A5E1-252B6EAC9268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="10690" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8550" yWindow="2430" windowWidth="28800" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
@@ -765,13 +765,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.75" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -779,803 +779,803 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="4"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
       <c r="B35" s="4"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" s="3"/>
       <c r="B36" s="4"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="4"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" s="3"/>
       <c r="B38" s="4"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" s="3"/>
       <c r="B40" s="4"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" s="3"/>
       <c r="B41" s="4"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" s="3"/>
       <c r="B42" s="4"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" s="3"/>
       <c r="B43" s="4"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" s="3"/>
       <c r="B44" s="4"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" s="3"/>
       <c r="B45" s="4"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" s="3"/>
       <c r="B46" s="4"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" s="3"/>
       <c r="B47" s="4"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" s="3"/>
       <c r="B48" s="4"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
       <c r="B49" s="4"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50" s="3"/>
       <c r="B50" s="4"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51" s="3"/>
       <c r="B51" s="4"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52" s="3"/>
       <c r="B52" s="4"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53" s="3"/>
       <c r="B53" s="4"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54" s="3"/>
       <c r="B54" s="4"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55" s="3"/>
       <c r="B55" s="4"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56" s="3"/>
       <c r="B56" s="4"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57" s="3"/>
       <c r="B57" s="4"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58" s="3"/>
       <c r="B58" s="4"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59" s="3"/>
       <c r="B59" s="4"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60" s="3"/>
       <c r="B60" s="4"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61" s="3"/>
       <c r="B61" s="4"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62" s="3"/>
       <c r="B62" s="4"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63" s="3"/>
       <c r="B63" s="4"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64" s="3"/>
       <c r="B64" s="4"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65" s="3"/>
       <c r="B65" s="4"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66" s="3"/>
       <c r="B66" s="4"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67" s="3"/>
       <c r="B67" s="4"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68" s="3"/>
       <c r="B68" s="4"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69" s="3"/>
       <c r="B69" s="4"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70" s="3"/>
       <c r="B70" s="4"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71" s="3"/>
       <c r="B71" s="4"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72" s="3"/>
       <c r="B72" s="4"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73" s="3"/>
       <c r="B73" s="4"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74" s="3"/>
       <c r="B74" s="4"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75" s="3"/>
       <c r="B75" s="4"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76" s="3"/>
       <c r="B76" s="4"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77" s="3"/>
       <c r="B77" s="4"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78" s="3"/>
       <c r="B78" s="4"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79" s="3"/>
       <c r="B79" s="4"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80" s="3"/>
       <c r="B80" s="4"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81" s="3"/>
       <c r="B81" s="4"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82" s="3"/>
       <c r="B82" s="4"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83" s="3"/>
       <c r="B83" s="4"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84" s="3"/>
       <c r="B84" s="4"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85" s="3"/>
       <c r="B85" s="4"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86" s="3"/>
       <c r="B86" s="4"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87" s="3"/>
       <c r="B87" s="4"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88" s="3"/>
       <c r="B88" s="4"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89" s="3"/>
       <c r="B89" s="4"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90" s="3"/>
       <c r="B90" s="4"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91" s="3"/>
       <c r="B91" s="4"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92" s="3"/>
       <c r="B92" s="4"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93" s="3"/>
       <c r="B93" s="4"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94" s="3"/>
       <c r="B94" s="4"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A95" s="3"/>
       <c r="B95" s="4"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A96" s="3"/>
       <c r="B96" s="4"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A97" s="3"/>
       <c r="B97" s="4"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A98" s="3"/>
       <c r="B98" s="4"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A99" s="3"/>
       <c r="B99" s="4"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A100" s="3"/>
       <c r="B100" s="4"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A101" s="3"/>
       <c r="B101" s="4"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A102" s="3"/>
       <c r="B102" s="4"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A103" s="3"/>
       <c r="B103" s="4"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A104" s="3"/>
       <c r="B104" s="4"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A105" s="3"/>
       <c r="B105" s="4"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A106" s="3"/>
       <c r="B106" s="4"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A107" s="3"/>
       <c r="B107" s="4"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A108" s="3"/>
       <c r="B108" s="4"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A109" s="3"/>
       <c r="B109" s="4"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A110" s="3"/>
       <c r="B110" s="4"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A111" s="3"/>
       <c r="B111" s="4"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A112" s="3"/>
       <c r="B112" s="4"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A113" s="3"/>
       <c r="B113" s="4"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A114" s="3"/>
       <c r="B114" s="4"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A115" s="3"/>
       <c r="B115" s="4"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A116" s="3"/>
       <c r="B116" s="4"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A117" s="3"/>
       <c r="B117" s="4"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A118" s="3"/>
       <c r="B118" s="4"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A119" s="3"/>
       <c r="B119" s="4"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A120" s="3"/>
       <c r="B120" s="4"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A121" s="3"/>
       <c r="B121" s="4"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A122" s="3"/>
       <c r="B122" s="4"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A123" s="3"/>
       <c r="B123" s="4"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A124" s="3"/>
       <c r="B124" s="4"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A125" s="3"/>
       <c r="B125" s="4"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A126" s="3"/>
       <c r="B126" s="4"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A127" s="3"/>
       <c r="B127" s="4"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A128" s="3"/>
       <c r="B128" s="4"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A129" s="3"/>
       <c r="B129" s="4"/>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A130" s="3"/>
       <c r="B130" s="4"/>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A131" s="3"/>
       <c r="B131" s="4"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A132" s="3"/>
       <c r="B132" s="4"/>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A133" s="3"/>
       <c r="B133" s="4"/>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A134" s="3"/>
       <c r="B134" s="4"/>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A135" s="3"/>
       <c r="B135" s="4"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A136" s="3"/>
       <c r="B136" s="4"/>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A137" s="3"/>
       <c r="B137" s="4"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A138" s="3"/>
       <c r="B138" s="4"/>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A139" s="3"/>
       <c r="B139" s="4"/>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A140" s="3"/>
       <c r="B140" s="4"/>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A141" s="3"/>
       <c r="B141" s="4"/>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A142" s="3"/>
       <c r="B142" s="4"/>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A143" s="3"/>
       <c r="B143" s="4"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A144" s="3"/>
       <c r="B144" s="4"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A145" s="3"/>
       <c r="B145" s="4"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A146" s="3"/>
       <c r="B146" s="4"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A147" s="3"/>
       <c r="B147" s="4"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A148" s="3"/>
       <c r="B148" s="4"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A149" s="3"/>
       <c r="B149" s="4"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A150" s="3"/>
       <c r="B150" s="4"/>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A151" s="3"/>
       <c r="B151" s="4"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A152" s="3"/>
       <c r="B152" s="4"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A153" s="3"/>
       <c r="B153" s="4"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A154" s="3"/>
       <c r="B154" s="4"/>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A155" s="3"/>
       <c r="B155" s="4"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A156" s="3"/>
       <c r="B156" s="4"/>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A157" s="3"/>
       <c r="B157" s="4"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A158" s="3"/>
       <c r="B158" s="4"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A159" s="3"/>
       <c r="B159" s="4"/>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A160" s="3"/>
       <c r="B160" s="4"/>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A161" s="3"/>
       <c r="B161" s="4"/>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A162" s="3"/>
       <c r="B162" s="4"/>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A163" s="3"/>
       <c r="B163" s="4"/>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A164" s="3"/>
       <c r="B164" s="4"/>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A165" s="3"/>
       <c r="B165" s="4"/>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A166" s="3"/>
       <c r="B166" s="4"/>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A167" s="3"/>
       <c r="B167" s="4"/>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A168" s="3"/>
       <c r="B168" s="4"/>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A169" s="3"/>
       <c r="B169" s="4"/>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A170" s="3"/>
       <c r="B170" s="4"/>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A171" s="3"/>
       <c r="B171" s="4"/>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A172" s="3"/>
       <c r="B172" s="4"/>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A173" s="3"/>
       <c r="B173" s="4"/>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A174" s="3"/>
       <c r="B174" s="4"/>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A175" s="3"/>
       <c r="B175" s="4"/>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A176" s="3"/>
       <c r="B176" s="4"/>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A177" s="3"/>
       <c r="B177" s="4"/>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A178" s="3"/>
       <c r="B178" s="4"/>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A179" s="3"/>
       <c r="B179" s="4"/>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A180" s="3"/>
       <c r="B180" s="4"/>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A181" s="3"/>
       <c r="B181" s="4"/>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A182" s="3"/>
       <c r="B182" s="4"/>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A183" s="3"/>
       <c r="B183" s="4"/>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A184" s="3"/>
       <c r="B184" s="4"/>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A185" s="3"/>
       <c r="B185" s="4"/>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A186" s="3"/>
       <c r="B186" s="4"/>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A187" s="3"/>
       <c r="B187" s="4"/>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A188" s="3"/>
       <c r="B188" s="4"/>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A189" s="3"/>
       <c r="B189" s="4"/>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A190" s="3"/>
       <c r="B190" s="4"/>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A191" s="3"/>
       <c r="B191" s="4"/>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A192" s="3"/>
       <c r="B192" s="4"/>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A193" s="3"/>
       <c r="B193" s="4"/>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A194" s="3"/>
       <c r="B194" s="4"/>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A195" s="3"/>
       <c r="B195" s="4"/>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A196" s="3"/>
       <c r="B196" s="4"/>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A197" s="3"/>
       <c r="B197" s="4"/>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A198" s="3"/>
       <c r="B198" s="4"/>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A199" s="5"/>
       <c r="B199" s="11"/>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A200" s="3"/>
       <c r="B200" s="4"/>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A201" s="3"/>
       <c r="B201" s="4"/>
     </row>
@@ -1603,15 +1603,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="25.75" style="12" customWidth="1"/>
     <col min="2" max="2" width="15.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="45.75" style="13" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
@@ -1622,1002 +1622,1002 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="14"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="14"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="14"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="14"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="14"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="4"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="4"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="14"/>
       <c r="B37" s="3"/>
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="14"/>
       <c r="B38" s="3"/>
       <c r="C38" s="4"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="14"/>
       <c r="B39" s="3"/>
       <c r="C39" s="4"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="14"/>
       <c r="B40" s="3"/>
       <c r="C40" s="4"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="14"/>
       <c r="B41" s="3"/>
       <c r="C41" s="4"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" s="14"/>
       <c r="B42" s="3"/>
       <c r="C42" s="4"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="14"/>
       <c r="B43" s="3"/>
       <c r="C43" s="4"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" s="14"/>
       <c r="B44" s="3"/>
       <c r="C44" s="4"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" s="14"/>
       <c r="B45" s="3"/>
       <c r="C45" s="4"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" s="14"/>
       <c r="B46" s="3"/>
       <c r="C46" s="4"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" s="14"/>
       <c r="B47" s="3"/>
       <c r="C47" s="4"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" s="14"/>
       <c r="B48" s="3"/>
       <c r="C48" s="4"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" s="14"/>
       <c r="B49" s="3"/>
       <c r="C49" s="4"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" s="14"/>
       <c r="B50" s="3"/>
       <c r="C50" s="4"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" s="14"/>
       <c r="B51" s="3"/>
       <c r="C51" s="4"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" s="14"/>
       <c r="B52" s="3"/>
       <c r="C52" s="4"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" s="14"/>
       <c r="B53" s="3"/>
       <c r="C53" s="4"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" s="14"/>
       <c r="B54" s="3"/>
       <c r="C54" s="4"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" s="14"/>
       <c r="B55" s="3"/>
       <c r="C55" s="4"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" s="14"/>
       <c r="B56" s="3"/>
       <c r="C56" s="4"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" s="14"/>
       <c r="B57" s="3"/>
       <c r="C57" s="4"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58" s="14"/>
       <c r="B58" s="3"/>
       <c r="C58" s="4"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59" s="14"/>
       <c r="B59" s="3"/>
       <c r="C59" s="4"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60" s="14"/>
       <c r="B60" s="3"/>
       <c r="C60" s="4"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61" s="14"/>
       <c r="B61" s="3"/>
       <c r="C61" s="4"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62" s="14"/>
       <c r="B62" s="3"/>
       <c r="C62" s="4"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63" s="14"/>
       <c r="B63" s="3"/>
       <c r="C63" s="4"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64" s="14"/>
       <c r="B64" s="3"/>
       <c r="C64" s="4"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" s="14"/>
       <c r="B65" s="3"/>
       <c r="C65" s="4"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66" s="14"/>
       <c r="B66" s="3"/>
       <c r="C66" s="4"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67" s="14"/>
       <c r="B67" s="3"/>
       <c r="C67" s="4"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68" s="14"/>
       <c r="B68" s="3"/>
       <c r="C68" s="4"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69" s="14"/>
       <c r="B69" s="3"/>
       <c r="C69" s="4"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70" s="14"/>
       <c r="B70" s="3"/>
       <c r="C70" s="4"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71" s="14"/>
       <c r="B71" s="3"/>
       <c r="C71" s="4"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72" s="14"/>
       <c r="B72" s="3"/>
       <c r="C72" s="4"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73" s="14"/>
       <c r="B73" s="3"/>
       <c r="C73" s="4"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74" s="14"/>
       <c r="B74" s="3"/>
       <c r="C74" s="4"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75" s="14"/>
       <c r="B75" s="3"/>
       <c r="C75" s="4"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76" s="14"/>
       <c r="B76" s="3"/>
       <c r="C76" s="4"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77" s="14"/>
       <c r="B77" s="3"/>
       <c r="C77" s="4"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78" s="14"/>
       <c r="B78" s="3"/>
       <c r="C78" s="4"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79" s="14"/>
       <c r="B79" s="3"/>
       <c r="C79" s="4"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80" s="14"/>
       <c r="B80" s="3"/>
       <c r="C80" s="4"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81" s="14"/>
       <c r="B81" s="3"/>
       <c r="C81" s="4"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82" s="14"/>
       <c r="B82" s="3"/>
       <c r="C82" s="4"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83" s="14"/>
       <c r="B83" s="3"/>
       <c r="C83" s="4"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84" s="14"/>
       <c r="B84" s="3"/>
       <c r="C84" s="4"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85" s="14"/>
       <c r="B85" s="3"/>
       <c r="C85" s="4"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86" s="14"/>
       <c r="B86" s="3"/>
       <c r="C86" s="4"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87" s="14"/>
       <c r="B87" s="3"/>
       <c r="C87" s="4"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88" s="14"/>
       <c r="B88" s="3"/>
       <c r="C88" s="4"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89" s="14"/>
       <c r="B89" s="3"/>
       <c r="C89" s="4"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90" s="14"/>
       <c r="B90" s="3"/>
       <c r="C90" s="4"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91" s="14"/>
       <c r="B91" s="3"/>
       <c r="C91" s="4"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92" s="14"/>
       <c r="B92" s="3"/>
       <c r="C92" s="4"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93" s="14"/>
       <c r="B93" s="3"/>
       <c r="C93" s="4"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94" s="14"/>
       <c r="B94" s="3"/>
       <c r="C94" s="4"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95" s="14"/>
       <c r="B95" s="3"/>
       <c r="C95" s="4"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96" s="14"/>
       <c r="B96" s="3"/>
       <c r="C96" s="4"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97" s="14"/>
       <c r="B97" s="3"/>
       <c r="C97" s="4"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98" s="14"/>
       <c r="B98" s="3"/>
       <c r="C98" s="4"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99" s="14"/>
       <c r="B99" s="3"/>
       <c r="C99" s="4"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100" s="14"/>
       <c r="B100" s="3"/>
       <c r="C100" s="4"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101" s="14"/>
       <c r="B101" s="3"/>
       <c r="C101" s="4"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A102" s="14"/>
       <c r="B102" s="3"/>
       <c r="C102" s="4"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A103" s="14"/>
       <c r="B103" s="3"/>
       <c r="C103" s="4"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A104" s="14"/>
       <c r="B104" s="3"/>
       <c r="C104" s="4"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A105" s="14"/>
       <c r="B105" s="3"/>
       <c r="C105" s="4"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A106" s="14"/>
       <c r="B106" s="3"/>
       <c r="C106" s="4"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A107" s="14"/>
       <c r="B107" s="3"/>
       <c r="C107" s="4"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A108" s="14"/>
       <c r="B108" s="3"/>
       <c r="C108" s="4"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A109" s="14"/>
       <c r="B109" s="3"/>
       <c r="C109" s="4"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A110" s="14"/>
       <c r="B110" s="3"/>
       <c r="C110" s="4"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A111" s="14"/>
       <c r="B111" s="3"/>
       <c r="C111" s="4"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A112" s="14"/>
       <c r="B112" s="3"/>
       <c r="C112" s="4"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A113" s="14"/>
       <c r="B113" s="3"/>
       <c r="C113" s="4"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A114" s="14"/>
       <c r="B114" s="3"/>
       <c r="C114" s="4"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A115" s="14"/>
       <c r="B115" s="3"/>
       <c r="C115" s="4"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A116" s="14"/>
       <c r="B116" s="3"/>
       <c r="C116" s="4"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A117" s="14"/>
       <c r="B117" s="3"/>
       <c r="C117" s="4"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A118" s="14"/>
       <c r="B118" s="3"/>
       <c r="C118" s="4"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A119" s="14"/>
       <c r="B119" s="3"/>
       <c r="C119" s="4"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A120" s="14"/>
       <c r="B120" s="3"/>
       <c r="C120" s="4"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A121" s="14"/>
       <c r="B121" s="3"/>
       <c r="C121" s="4"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A122" s="14"/>
       <c r="B122" s="3"/>
       <c r="C122" s="4"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A123" s="14"/>
       <c r="B123" s="3"/>
       <c r="C123" s="4"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A124" s="14"/>
       <c r="B124" s="3"/>
       <c r="C124" s="4"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A125" s="14"/>
       <c r="B125" s="3"/>
       <c r="C125" s="4"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A126" s="14"/>
       <c r="B126" s="3"/>
       <c r="C126" s="4"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A127" s="14"/>
       <c r="B127" s="3"/>
       <c r="C127" s="4"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A128" s="14"/>
       <c r="B128" s="3"/>
       <c r="C128" s="4"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A129" s="14"/>
       <c r="B129" s="3"/>
       <c r="C129" s="4"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A130" s="14"/>
       <c r="B130" s="3"/>
       <c r="C130" s="4"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A131" s="14"/>
       <c r="B131" s="3"/>
       <c r="C131" s="4"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A132" s="14"/>
       <c r="B132" s="3"/>
       <c r="C132" s="4"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A133" s="14"/>
       <c r="B133" s="3"/>
       <c r="C133" s="4"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A134" s="14"/>
       <c r="B134" s="3"/>
       <c r="C134" s="4"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A135" s="14"/>
       <c r="B135" s="3"/>
       <c r="C135" s="4"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A136" s="14"/>
       <c r="B136" s="3"/>
       <c r="C136" s="4"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A137" s="14"/>
       <c r="B137" s="3"/>
       <c r="C137" s="4"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A138" s="14"/>
       <c r="B138" s="3"/>
       <c r="C138" s="4"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A139" s="14"/>
       <c r="B139" s="3"/>
       <c r="C139" s="4"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A140" s="14"/>
       <c r="B140" s="3"/>
       <c r="C140" s="4"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A141" s="14"/>
       <c r="B141" s="3"/>
       <c r="C141" s="4"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A142" s="14"/>
       <c r="B142" s="3"/>
       <c r="C142" s="4"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A143" s="14"/>
       <c r="B143" s="3"/>
       <c r="C143" s="4"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A144" s="14"/>
       <c r="B144" s="3"/>
       <c r="C144" s="4"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A145" s="14"/>
       <c r="B145" s="3"/>
       <c r="C145" s="4"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A146" s="14"/>
       <c r="B146" s="3"/>
       <c r="C146" s="4"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A147" s="14"/>
       <c r="B147" s="3"/>
       <c r="C147" s="4"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A148" s="14"/>
       <c r="B148" s="3"/>
       <c r="C148" s="4"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A149" s="14"/>
       <c r="B149" s="3"/>
       <c r="C149" s="4"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A150" s="14"/>
       <c r="B150" s="3"/>
       <c r="C150" s="4"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A151" s="14"/>
       <c r="B151" s="3"/>
       <c r="C151" s="4"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A152" s="14"/>
       <c r="B152" s="3"/>
       <c r="C152" s="4"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A153" s="14"/>
       <c r="B153" s="3"/>
       <c r="C153" s="4"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A154" s="14"/>
       <c r="B154" s="3"/>
       <c r="C154" s="4"/>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A155" s="14"/>
       <c r="B155" s="3"/>
       <c r="C155" s="4"/>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A156" s="14"/>
       <c r="B156" s="3"/>
       <c r="C156" s="4"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A157" s="14"/>
       <c r="B157" s="3"/>
       <c r="C157" s="4"/>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A158" s="14"/>
       <c r="B158" s="3"/>
       <c r="C158" s="4"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A159" s="14"/>
       <c r="B159" s="3"/>
       <c r="C159" s="4"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A160" s="14"/>
       <c r="B160" s="3"/>
       <c r="C160" s="4"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A161" s="14"/>
       <c r="B161" s="3"/>
       <c r="C161" s="4"/>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A162" s="14"/>
       <c r="B162" s="3"/>
       <c r="C162" s="4"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A163" s="14"/>
       <c r="B163" s="3"/>
       <c r="C163" s="4"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A164" s="14"/>
       <c r="B164" s="3"/>
       <c r="C164" s="4"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A165" s="14"/>
       <c r="B165" s="3"/>
       <c r="C165" s="4"/>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A166" s="14"/>
       <c r="B166" s="3"/>
       <c r="C166" s="4"/>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A167" s="14"/>
       <c r="B167" s="3"/>
       <c r="C167" s="4"/>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A168" s="14"/>
       <c r="B168" s="3"/>
       <c r="C168" s="4"/>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A169" s="14"/>
       <c r="B169" s="3"/>
       <c r="C169" s="4"/>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A170" s="14"/>
       <c r="B170" s="3"/>
       <c r="C170" s="4"/>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A171" s="14"/>
       <c r="B171" s="3"/>
       <c r="C171" s="4"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A172" s="14"/>
       <c r="B172" s="3"/>
       <c r="C172" s="4"/>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A173" s="14"/>
       <c r="B173" s="3"/>
       <c r="C173" s="4"/>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A174" s="14"/>
       <c r="B174" s="3"/>
       <c r="C174" s="4"/>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A175" s="14"/>
       <c r="B175" s="3"/>
       <c r="C175" s="4"/>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A176" s="14"/>
       <c r="B176" s="3"/>
       <c r="C176" s="4"/>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A177" s="14"/>
       <c r="B177" s="3"/>
       <c r="C177" s="4"/>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A178" s="14"/>
       <c r="B178" s="3"/>
       <c r="C178" s="4"/>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A179" s="14"/>
       <c r="B179" s="3"/>
       <c r="C179" s="4"/>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A180" s="14"/>
       <c r="B180" s="3"/>
       <c r="C180" s="4"/>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A181" s="14"/>
       <c r="B181" s="3"/>
       <c r="C181" s="4"/>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A182" s="14"/>
       <c r="B182" s="3"/>
       <c r="C182" s="4"/>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A183" s="14"/>
       <c r="B183" s="3"/>
       <c r="C183" s="4"/>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A184" s="14"/>
       <c r="B184" s="3"/>
       <c r="C184" s="4"/>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A185" s="14"/>
       <c r="B185" s="3"/>
       <c r="C185" s="4"/>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A186" s="14"/>
       <c r="B186" s="3"/>
       <c r="C186" s="4"/>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A187" s="14"/>
       <c r="B187" s="3"/>
       <c r="C187" s="4"/>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A188" s="14"/>
       <c r="B188" s="3"/>
       <c r="C188" s="4"/>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A189" s="14"/>
       <c r="B189" s="3"/>
       <c r="C189" s="4"/>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A190" s="14"/>
       <c r="B190" s="3"/>
       <c r="C190" s="4"/>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A191" s="14"/>
       <c r="B191" s="3"/>
       <c r="C191" s="4"/>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A192" s="14"/>
       <c r="B192" s="3"/>
       <c r="C192" s="4"/>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A193" s="14"/>
       <c r="B193" s="3"/>
       <c r="C193" s="4"/>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A194" s="14"/>
       <c r="B194" s="3"/>
       <c r="C194" s="4"/>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A195" s="14"/>
       <c r="B195" s="3"/>
       <c r="C195" s="4"/>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A196" s="14"/>
       <c r="B196" s="3"/>
       <c r="C196" s="4"/>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A197" s="14"/>
       <c r="B197" s="3"/>
       <c r="C197" s="4"/>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A198" s="14"/>
       <c r="B198" s="3"/>
       <c r="C198" s="4"/>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A199" s="14"/>
       <c r="B199" s="3"/>
       <c r="C199" s="4"/>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A200" s="14"/>
       <c r="B200" s="3"/>
       <c r="C200" s="4"/>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A201" s="15"/>
       <c r="B201" s="3"/>
       <c r="C201" s="4"/>
@@ -2646,14 +2646,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.75" style="13" customWidth="1"/>
     <col min="3" max="3" width="45.75" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2664,1002 +2664,1002 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="7"/>
       <c r="B2" s="14"/>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="7"/>
       <c r="B3" s="14"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
       <c r="B4" s="14"/>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="7"/>
       <c r="B5" s="14"/>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="7"/>
       <c r="B6" s="14"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="7"/>
       <c r="B7" s="14"/>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="7"/>
       <c r="B8" s="14"/>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="7"/>
       <c r="B9" s="14"/>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="7"/>
       <c r="B10" s="14"/>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="6"/>
       <c r="B11" s="14"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="6"/>
       <c r="B12" s="14"/>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="6"/>
       <c r="B13" s="14"/>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="6"/>
       <c r="B14" s="14"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="6"/>
       <c r="B15" s="14"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="6"/>
       <c r="B16" s="14"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="6"/>
       <c r="B17" s="14"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="6"/>
       <c r="B18" s="14"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="6"/>
       <c r="B19" s="14"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="6"/>
       <c r="B20" s="14"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="6"/>
       <c r="B21" s="14"/>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="6"/>
       <c r="B22" s="14"/>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="6"/>
       <c r="B23" s="14"/>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="6"/>
       <c r="B24" s="14"/>
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="6"/>
       <c r="B25" s="14"/>
       <c r="C25" s="4"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="6"/>
       <c r="B26" s="14"/>
       <c r="C26" s="4"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="6"/>
       <c r="B27" s="14"/>
       <c r="C27" s="4"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="6"/>
       <c r="B28" s="14"/>
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="6"/>
       <c r="B29" s="14"/>
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="6"/>
       <c r="B30" s="14"/>
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="6"/>
       <c r="B31" s="14"/>
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="6"/>
       <c r="B32" s="14"/>
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="6"/>
       <c r="B33" s="14"/>
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="6"/>
       <c r="B34" s="14"/>
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="6"/>
       <c r="B35" s="14"/>
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="6"/>
       <c r="B36" s="14"/>
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="6"/>
       <c r="B37" s="14"/>
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="6"/>
       <c r="B38" s="14"/>
       <c r="C38" s="4"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="6"/>
       <c r="B39" s="14"/>
       <c r="C39" s="4"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="6"/>
       <c r="B40" s="14"/>
       <c r="C40" s="4"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="6"/>
       <c r="B41" s="14"/>
       <c r="C41" s="4"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" s="6"/>
       <c r="B42" s="14"/>
       <c r="C42" s="4"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="6"/>
       <c r="B43" s="14"/>
       <c r="C43" s="4"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" s="6"/>
       <c r="B44" s="14"/>
       <c r="C44" s="4"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" s="6"/>
       <c r="B45" s="14"/>
       <c r="C45" s="4"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" s="6"/>
       <c r="B46" s="14"/>
       <c r="C46" s="4"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" s="6"/>
       <c r="B47" s="14"/>
       <c r="C47" s="4"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" s="6"/>
       <c r="B48" s="14"/>
       <c r="C48" s="4"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" s="6"/>
       <c r="B49" s="14"/>
       <c r="C49" s="4"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" s="6"/>
       <c r="B50" s="14"/>
       <c r="C50" s="4"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" s="6"/>
       <c r="B51" s="14"/>
       <c r="C51" s="4"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" s="6"/>
       <c r="B52" s="14"/>
       <c r="C52" s="4"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" s="6"/>
       <c r="B53" s="14"/>
       <c r="C53" s="4"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" s="6"/>
       <c r="B54" s="14"/>
       <c r="C54" s="4"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" s="6"/>
       <c r="B55" s="14"/>
       <c r="C55" s="4"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" s="6"/>
       <c r="B56" s="14"/>
       <c r="C56" s="4"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" s="6"/>
       <c r="B57" s="14"/>
       <c r="C57" s="4"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58" s="6"/>
       <c r="B58" s="14"/>
       <c r="C58" s="4"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59" s="6"/>
       <c r="B59" s="14"/>
       <c r="C59" s="4"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60" s="6"/>
       <c r="B60" s="14"/>
       <c r="C60" s="4"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61" s="6"/>
       <c r="B61" s="14"/>
       <c r="C61" s="4"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62" s="6"/>
       <c r="B62" s="14"/>
       <c r="C62" s="4"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63" s="6"/>
       <c r="B63" s="14"/>
       <c r="C63" s="4"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64" s="6"/>
       <c r="B64" s="14"/>
       <c r="C64" s="4"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" s="6"/>
       <c r="B65" s="14"/>
       <c r="C65" s="4"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66" s="6"/>
       <c r="B66" s="14"/>
       <c r="C66" s="4"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67" s="6"/>
       <c r="B67" s="14"/>
       <c r="C67" s="4"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68" s="6"/>
       <c r="B68" s="14"/>
       <c r="C68" s="4"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69" s="6"/>
       <c r="B69" s="14"/>
       <c r="C69" s="4"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70" s="6"/>
       <c r="B70" s="14"/>
       <c r="C70" s="4"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71" s="6"/>
       <c r="B71" s="14"/>
       <c r="C71" s="4"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72" s="6"/>
       <c r="B72" s="14"/>
       <c r="C72" s="4"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73" s="6"/>
       <c r="B73" s="14"/>
       <c r="C73" s="4"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74" s="6"/>
       <c r="B74" s="14"/>
       <c r="C74" s="4"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75" s="6"/>
       <c r="B75" s="14"/>
       <c r="C75" s="4"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76" s="6"/>
       <c r="B76" s="14"/>
       <c r="C76" s="4"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77" s="6"/>
       <c r="B77" s="14"/>
       <c r="C77" s="4"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78" s="6"/>
       <c r="B78" s="14"/>
       <c r="C78" s="4"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79" s="6"/>
       <c r="B79" s="14"/>
       <c r="C79" s="4"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80" s="6"/>
       <c r="B80" s="14"/>
       <c r="C80" s="4"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81" s="6"/>
       <c r="B81" s="7"/>
       <c r="C81" s="4"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82" s="6"/>
       <c r="B82" s="7"/>
       <c r="C82" s="4"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83" s="6"/>
       <c r="B83" s="7"/>
       <c r="C83" s="4"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84" s="6"/>
       <c r="B84" s="7"/>
       <c r="C84" s="4"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85" s="6"/>
       <c r="B85" s="7"/>
       <c r="C85" s="4"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86" s="6"/>
       <c r="B86" s="7"/>
       <c r="C86" s="4"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87" s="6"/>
       <c r="B87" s="7"/>
       <c r="C87" s="4"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88" s="6"/>
       <c r="B88" s="7"/>
       <c r="C88" s="4"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89" s="6"/>
       <c r="B89" s="7"/>
       <c r="C89" s="4"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90" s="6"/>
       <c r="B90" s="7"/>
       <c r="C90" s="4"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91" s="6"/>
       <c r="B91" s="7"/>
       <c r="C91" s="4"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92" s="6"/>
       <c r="B92" s="7"/>
       <c r="C92" s="4"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93" s="6"/>
       <c r="B93" s="7"/>
       <c r="C93" s="4"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94" s="6"/>
       <c r="B94" s="7"/>
       <c r="C94" s="4"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95" s="6"/>
       <c r="B95" s="7"/>
       <c r="C95" s="4"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96" s="6"/>
       <c r="B96" s="7"/>
       <c r="C96" s="4"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97" s="6"/>
       <c r="B97" s="7"/>
       <c r="C97" s="4"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98" s="6"/>
       <c r="B98" s="7"/>
       <c r="C98" s="4"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99" s="6"/>
       <c r="B99" s="7"/>
       <c r="C99" s="4"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100" s="6"/>
       <c r="B100" s="7"/>
       <c r="C100" s="4"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101" s="6"/>
       <c r="B101" s="7"/>
       <c r="C101" s="4"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A102" s="6"/>
       <c r="B102" s="7"/>
       <c r="C102" s="4"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A103" s="6"/>
       <c r="B103" s="7"/>
       <c r="C103" s="4"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A104" s="6"/>
       <c r="B104" s="7"/>
       <c r="C104" s="4"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A105" s="6"/>
       <c r="B105" s="7"/>
       <c r="C105" s="4"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A106" s="6"/>
       <c r="B106" s="7"/>
       <c r="C106" s="4"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A107" s="6"/>
       <c r="B107" s="7"/>
       <c r="C107" s="4"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A108" s="6"/>
       <c r="B108" s="7"/>
       <c r="C108" s="4"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A109" s="6"/>
       <c r="B109" s="7"/>
       <c r="C109" s="4"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A110" s="6"/>
       <c r="B110" s="7"/>
       <c r="C110" s="4"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A111" s="6"/>
       <c r="B111" s="7"/>
       <c r="C111" s="4"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A112" s="6"/>
       <c r="B112" s="7"/>
       <c r="C112" s="4"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A113" s="6"/>
       <c r="B113" s="7"/>
       <c r="C113" s="4"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A114" s="6"/>
       <c r="B114" s="7"/>
       <c r="C114" s="4"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A115" s="6"/>
       <c r="B115" s="7"/>
       <c r="C115" s="4"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A116" s="6"/>
       <c r="B116" s="7"/>
       <c r="C116" s="4"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A117" s="6"/>
       <c r="B117" s="7"/>
       <c r="C117" s="4"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A118" s="6"/>
       <c r="B118" s="7"/>
       <c r="C118" s="4"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A119" s="6"/>
       <c r="B119" s="7"/>
       <c r="C119" s="4"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A120" s="6"/>
       <c r="B120" s="7"/>
       <c r="C120" s="4"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A121" s="6"/>
       <c r="B121" s="7"/>
       <c r="C121" s="4"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A122" s="6"/>
       <c r="B122" s="7"/>
       <c r="C122" s="4"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A123" s="6"/>
       <c r="B123" s="7"/>
       <c r="C123" s="4"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A124" s="6"/>
       <c r="B124" s="7"/>
       <c r="C124" s="4"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A125" s="6"/>
       <c r="B125" s="7"/>
       <c r="C125" s="4"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A126" s="6"/>
       <c r="B126" s="7"/>
       <c r="C126" s="4"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A127" s="6"/>
       <c r="B127" s="7"/>
       <c r="C127" s="4"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A128" s="6"/>
       <c r="B128" s="7"/>
       <c r="C128" s="4"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A129" s="6"/>
       <c r="B129" s="7"/>
       <c r="C129" s="4"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A130" s="6"/>
       <c r="B130" s="7"/>
       <c r="C130" s="4"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A131" s="6"/>
       <c r="B131" s="7"/>
       <c r="C131" s="4"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A132" s="6"/>
       <c r="B132" s="7"/>
       <c r="C132" s="4"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A133" s="6"/>
       <c r="B133" s="7"/>
       <c r="C133" s="4"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A134" s="6"/>
       <c r="B134" s="7"/>
       <c r="C134" s="4"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A135" s="6"/>
       <c r="B135" s="7"/>
       <c r="C135" s="4"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A136" s="6"/>
       <c r="B136" s="7"/>
       <c r="C136" s="4"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A137" s="6"/>
       <c r="B137" s="7"/>
       <c r="C137" s="4"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A138" s="6"/>
       <c r="B138" s="7"/>
       <c r="C138" s="4"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A139" s="6"/>
       <c r="B139" s="7"/>
       <c r="C139" s="4"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A140" s="6"/>
       <c r="B140" s="7"/>
       <c r="C140" s="4"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A141" s="6"/>
       <c r="B141" s="7"/>
       <c r="C141" s="4"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A142" s="6"/>
       <c r="B142" s="7"/>
       <c r="C142" s="4"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A143" s="6"/>
       <c r="B143" s="7"/>
       <c r="C143" s="4"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A144" s="6"/>
       <c r="B144" s="7"/>
       <c r="C144" s="4"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A145" s="6"/>
       <c r="B145" s="7"/>
       <c r="C145" s="4"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A146" s="6"/>
       <c r="B146" s="7"/>
       <c r="C146" s="4"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A147" s="6"/>
       <c r="B147" s="7"/>
       <c r="C147" s="4"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A148" s="6"/>
       <c r="B148" s="7"/>
       <c r="C148" s="4"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A149" s="6"/>
       <c r="B149" s="7"/>
       <c r="C149" s="4"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A150" s="6"/>
       <c r="B150" s="7"/>
       <c r="C150" s="4"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A151" s="6"/>
       <c r="B151" s="7"/>
       <c r="C151" s="4"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A152" s="6"/>
       <c r="B152" s="7"/>
       <c r="C152" s="4"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A153" s="6"/>
       <c r="B153" s="7"/>
       <c r="C153" s="4"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A154" s="6"/>
       <c r="B154" s="7"/>
       <c r="C154" s="4"/>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A155" s="6"/>
       <c r="B155" s="7"/>
       <c r="C155" s="4"/>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A156" s="6"/>
       <c r="B156" s="7"/>
       <c r="C156" s="4"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A157" s="6"/>
       <c r="B157" s="7"/>
       <c r="C157" s="4"/>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A158" s="6"/>
       <c r="B158" s="7"/>
       <c r="C158" s="4"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A159" s="6"/>
       <c r="B159" s="7"/>
       <c r="C159" s="4"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A160" s="6"/>
       <c r="B160" s="7"/>
       <c r="C160" s="4"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A161" s="6"/>
       <c r="B161" s="7"/>
       <c r="C161" s="4"/>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A162" s="6"/>
       <c r="B162" s="7"/>
       <c r="C162" s="4"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A163" s="6"/>
       <c r="B163" s="7"/>
       <c r="C163" s="4"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A164" s="6"/>
       <c r="B164" s="7"/>
       <c r="C164" s="4"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A165" s="6"/>
       <c r="B165" s="7"/>
       <c r="C165" s="4"/>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A166" s="6"/>
       <c r="B166" s="7"/>
       <c r="C166" s="4"/>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A167" s="6"/>
       <c r="B167" s="7"/>
       <c r="C167" s="4"/>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A168" s="6"/>
       <c r="B168" s="7"/>
       <c r="C168" s="4"/>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A169" s="6"/>
       <c r="B169" s="7"/>
       <c r="C169" s="4"/>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A170" s="6"/>
       <c r="B170" s="7"/>
       <c r="C170" s="4"/>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A171" s="6"/>
       <c r="B171" s="7"/>
       <c r="C171" s="4"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A172" s="6"/>
       <c r="B172" s="7"/>
       <c r="C172" s="4"/>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A173" s="6"/>
       <c r="B173" s="7"/>
       <c r="C173" s="4"/>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A174" s="6"/>
       <c r="B174" s="7"/>
       <c r="C174" s="4"/>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A175" s="6"/>
       <c r="B175" s="7"/>
       <c r="C175" s="4"/>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A176" s="6"/>
       <c r="B176" s="7"/>
       <c r="C176" s="4"/>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A177" s="6"/>
       <c r="B177" s="7"/>
       <c r="C177" s="4"/>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A178" s="6"/>
       <c r="B178" s="7"/>
       <c r="C178" s="4"/>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A179" s="6"/>
       <c r="B179" s="7"/>
       <c r="C179" s="4"/>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A180" s="6"/>
       <c r="B180" s="7"/>
       <c r="C180" s="4"/>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A181" s="6"/>
       <c r="B181" s="7"/>
       <c r="C181" s="4"/>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A182" s="6"/>
       <c r="B182" s="7"/>
       <c r="C182" s="4"/>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A183" s="6"/>
       <c r="B183" s="7"/>
       <c r="C183" s="4"/>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A184" s="6"/>
       <c r="B184" s="7"/>
       <c r="C184" s="4"/>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A185" s="6"/>
       <c r="B185" s="7"/>
       <c r="C185" s="4"/>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A186" s="6"/>
       <c r="B186" s="7"/>
       <c r="C186" s="4"/>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A187" s="6"/>
       <c r="B187" s="7"/>
       <c r="C187" s="4"/>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A188" s="6"/>
       <c r="B188" s="7"/>
       <c r="C188" s="4"/>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A189" s="6"/>
       <c r="B189" s="7"/>
       <c r="C189" s="4"/>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A190" s="6"/>
       <c r="B190" s="7"/>
       <c r="C190" s="4"/>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A191" s="6"/>
       <c r="B191" s="7"/>
       <c r="C191" s="4"/>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A192" s="6"/>
       <c r="B192" s="7"/>
       <c r="C192" s="4"/>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A193" s="6"/>
       <c r="B193" s="7"/>
       <c r="C193" s="4"/>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A194" s="6"/>
       <c r="B194" s="7"/>
       <c r="C194" s="4"/>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A195" s="6"/>
       <c r="B195" s="7"/>
       <c r="C195" s="4"/>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A196" s="6"/>
       <c r="B196" s="7"/>
       <c r="C196" s="4"/>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A197" s="6"/>
       <c r="B197" s="7"/>
       <c r="C197" s="4"/>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A198" s="6"/>
       <c r="B198" s="7"/>
       <c r="C198" s="4"/>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A199" s="6"/>
       <c r="B199" s="7"/>
       <c r="C199" s="4"/>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A200" s="6"/>
       <c r="B200" s="7"/>
       <c r="C200" s="4"/>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A201" s="10"/>
       <c r="B201" s="15"/>
       <c r="C201" s="4"/>

--- a/Workbooks/JA/組織単位.xlsx
+++ b/Workbooks/JA/組織単位.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F12A6D-C03F-4B27-A5E1-252B6EAC9268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B7FA5D-A777-4831-9BCC-8E5387BBE04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8550" yWindow="2430" windowWidth="28800" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5925" yWindow="1335" windowWidth="30510" windowHeight="10200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/組織単位.xlsx
+++ b/Workbooks/JA/組織単位.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B7FA5D-A777-4831-9BCC-8E5387BBE04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80498B1E-A8C8-418E-8FAD-A60C5B66EFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5925" yWindow="1335" windowWidth="30510" windowHeight="10200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9375" yWindow="1275" windowWidth="30510" windowHeight="10200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/組織単位.xlsx
+++ b/Workbooks/JA/組織単位.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80498B1E-A8C8-418E-8FAD-A60C5B66EFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB87607-A216-4414-BE15-B4B99AD8821E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9375" yWindow="1275" windowWidth="30510" windowHeight="10200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9000" yWindow="1335" windowWidth="28800" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/組織単位.xlsx
+++ b/Workbooks/JA/組織単位.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB87607-A216-4414-BE15-B4B99AD8821E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6BEC6E-D3FC-42C1-A7E4-8E719E35045F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9000" yWindow="1335" windowWidth="28800" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23780" yWindow="9920" windowWidth="19200" windowHeight="4750" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/組織単位.xlsx
+++ b/Workbooks/JA/組織単位.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6BEC6E-D3FC-42C1-A7E4-8E719E35045F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DDB381-562F-4FE4-9349-A88A22DB235B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23780" yWindow="9920" windowWidth="19200" windowHeight="4750" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="29745" windowHeight="12540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/組織単位.xlsx
+++ b/Workbooks/JA/組織単位.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DDB381-562F-4FE4-9349-A88A22DB235B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98BFA19-9B3D-4AF8-8D7B-277CBDEBD11C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="29745" windowHeight="12540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8100" yWindow="885" windowWidth="27225" windowHeight="11940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/組織単位.xlsx
+++ b/Workbooks/JA/組織単位.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98BFA19-9B3D-4AF8-8D7B-277CBDEBD11C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5775FE9B-68C4-4F59-B33F-5604C1D5EE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="885" windowWidth="27225" windowHeight="11940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7185" yWindow="3600" windowWidth="21375" windowHeight="9990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
